--- a/public/template/user-template.xlsx
+++ b/public/template/user-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="19140" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>ess</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>USER TEMPLATE</t>
+  </si>
+  <si>
+    <t>Note: Make sure to upload this file in the user upload form otherwise this will be uploaded.</t>
   </si>
   <si>
     <t>NO.</t>
   </si>
   <si>
-    <t>NOTE:  This file is saved as .XLSX extention. To upload your question, you have to create a  CSV (Comma Separated Value)  version of this file. To create the CSV version of this file, click File-&gt;Save as-&gt; and then select  CSV (Comma delimited). After saving click YES button. Close the file and select Don't Save Button. You can now upload CSV file generated from template. If you want to update you question before uploading always you the .XLSX file version and generate again a new CSV file version.</t>
+    <t>ID Number</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>First Name</t>
   </si>
   <si>
     <r>
@@ -45,97 +57,22 @@
     <t>Cellphone Number</t>
   </si>
   <si>
-    <t>USER TEMPLATE</t>
-  </si>
-  <si>
-    <t>Note: Make sure to upload this file in the user upload form otherwise this will be uploaded.</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>ID Number</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>ww</t>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>tt</t>
-  </si>
-  <si>
-    <t>yy</t>
-  </si>
-  <si>
-    <t>BSCS</t>
-  </si>
-  <si>
-    <t>MSIT</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>CDE</t>
-  </si>
-  <si>
-    <t>ASDF</t>
-  </si>
-  <si>
-    <t>WER</t>
+    <t>Test Firstname</t>
   </si>
   <si>
     <t>09267629049</t>
   </si>
   <si>
-    <t>09267629041</t>
-  </si>
-  <si>
-    <t>09267629042</t>
-  </si>
-  <si>
-    <t>09267629043</t>
-  </si>
-  <si>
-    <t>09267629044</t>
-  </si>
-  <si>
-    <t>09267629045</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>SDF</t>
-  </si>
-  <si>
     <t>END</t>
   </si>
   <si>
-    <t>DF</t>
+    <t>NOTE:  This file is saved as .XLSX extention. To upload your question, you have to create a  CSV (Comma Separated Value)  version of this file. To create the CSV version of this file, click File-&gt;Save as-&gt; and then select  CSV (Comma delimited). After saving click YES button. Close the file and select Don't Save Button. You can now upload CSV file generated from template. If you want to update you question before uploading always you the .XLSX file version and generate again a new CSV file version.</t>
+  </si>
+  <si>
+    <t>Test lastname</t>
+  </si>
+  <si>
+    <t>BSINT</t>
   </si>
 </sst>
 </file>
@@ -189,14 +126,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -229,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -237,11 +174,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,40 +201,45 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,208 +542,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.08984375" customWidth="1"/>
-    <col min="3" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="34.7265625" customWidth="1"/>
+    <col min="2" max="2" width="32.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="6">
+        <v>123456</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>123</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>124</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>125</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>126</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>127</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA9C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA9C" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0"/>
   <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A10:F11"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
